--- a/sslab/neuron-microglia/res/20210108_result_kv4.3_tf.xlsx
+++ b/sslab/neuron-microglia/res/20210108_result_kv4.3_tf.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="20210108_result_kv4.3_tf" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20210108_result_kv4.3_tf'!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -62,22 +65,23 @@
     <t>E2f1</t>
   </si>
   <si>
+    <t>Fos</t>
+  </si>
+  <si>
+    <t>Rel</t>
+  </si>
+  <si>
+    <t>Nr3c1</t>
+  </si>
+  <si>
+    <t>Jund</t>
+  </si>
+  <si>
+    <t>Cebpb</t>
+  </si>
+  <si>
     <t>Jun</t>
-  </si>
-  <si>
-    <t>Fos</t>
-  </si>
-  <si>
-    <t>Rel</t>
-  </si>
-  <si>
-    <t>Nr3c1</t>
-  </si>
-  <si>
-    <t>Jund</t>
-  </si>
-  <si>
-    <t>Cebpb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -943,7 +947,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,7 +984,7 @@
         <v>13260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>268.66666666666703</v>
@@ -1031,8 +1035,8 @@
       <c r="A4">
         <v>11555</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
         <v>48.3333333333333</v>
@@ -1058,7 +1062,7 @@
         <v>2369</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>24.3333333333333</v>
@@ -1084,7 +1088,7 @@
         <v>19005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -1136,7 +1140,7 @@
         <v>8869</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0.33333333333333298</v>
@@ -1188,7 +1192,7 @@
         <v>4267</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>232</v>
@@ -1262,6 +1266,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H12"/>
   <sortState ref="A2:H12">
     <sortCondition ref="G2:G12"/>
   </sortState>

--- a/sslab/neuron-microglia/res/20210108_result_kv4.3_tf.xlsx
+++ b/sslab/neuron-microglia/res/20210108_result_kv4.3_tf.xlsx
@@ -77,10 +77,11 @@
     <t>Jund</t>
   </si>
   <si>
+    <t>Jun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Cebpb</t>
-  </si>
-  <si>
-    <t>Jun</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -947,13 +948,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,7 +985,7 @@
         <v>13260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>268.66666666666703</v>
@@ -1036,7 +1037,7 @@
         <v>11555</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>48.3333333333333</v>
